--- a/res.xlsx
+++ b/res.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6615" yWindow="3525" windowWidth="28800" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -447,13 +447,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J11" sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>5.161.133.13</t>
         </is>
@@ -463,14 +463,14 @@
           <t>NG</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>superblock.ascams.com</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>182.22.25.252</t>
         </is>
@@ -482,7 +482,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>34.206.39.153</t>
         </is>
@@ -492,14 +492,14 @@
           <t>NG</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>all.s5h.net</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>184.94.240.124</t>
         </is>
@@ -511,7 +511,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>37.120.169.172</t>
         </is>
@@ -521,16 +521,14 @@
           <t>NG</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>b.barracudacentral.org
-dnsbl-3.uceprotect.net
-multi.surbl.org</t>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>b.barracudacentral.org, dnsbl-3.uceprotect.net, multi.surbl.org</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>106.139.178.230</t>
         </is>
@@ -542,7 +540,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>193.202.80.218</t>
         </is>
@@ -552,14 +550,14 @@
           <t>NG</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>dnsbl.dronebl.org</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>103.172.216.59</t>
         </is>
@@ -569,15 +567,14 @@
           <t>NG</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>all.spamrats.com
-noptr.spamrats.com</t>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>all.spamrats.com, noptr.spamrats.com</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>197.247.197.170</t>
         </is>
@@ -587,11 +584,9 @@
           <t>NG</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>all.spamrats.com
-noptr.spamrats.com
-zen.spamhaus.org</t>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>all.spamrats.com, noptr.spamrats.com, zen.spamhaus.org</t>
         </is>
       </c>
     </row>

--- a/res.xlsx
+++ b/res.xlsx
@@ -1,47 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arous\Desktop\blacklistalert_crawler-main\dist\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA5CDC3-933A-4093-A4EE-2C3BA4122264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6615" yWindow="3525" windowWidth="28800" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3450" yWindow="5025" windowWidth="28800" windowHeight="15345" xr2:uid="{8D2735B0-D965-4D65-A24E-6AAEB4E8716E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="00FF0000"/>
-    </font>
-    <font>
-      <color rgb="0000793D"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,89 +70,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -439,158 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACD01AE-C5EA-4716-B501-1CD9C406B810}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="A1:J11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>5.161.133.13</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>superblock.ascams.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>182.22.25.252</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>34.206.39.153</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>all.s5h.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>184.94.240.124</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>37.120.169.172</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>b.barracudacentral.org, dnsbl-3.uceprotect.net, multi.surbl.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>106.139.178.230</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>193.202.80.218</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>dnsbl.dronebl.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>103.172.216.59</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>all.spamrats.com, noptr.spamrats.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>197.247.197.170</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>all.spamrats.com, noptr.spamrats.com, zen.spamhaus.org</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>